--- a/notebooks/data/etiology.xlsx
+++ b/notebooks/data/etiology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zeta\Documents\acou_sommeil_HD_ENS\recrutement etude fin aout\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louis/git/Tinnitus-n-Sleep/notebooks/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1698AAFF-0C17-4DFF-A3DA-395E4BDC6821}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3851529E-841B-BD4D-AA13-F0D1CBA601AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F5BF53D5-4C89-465E-97CD-524ECB77F3A5}"/>
+    <workbookView xWindow="52800" yWindow="460" windowWidth="19200" windowHeight="21140" xr2:uid="{F5BF53D5-4C89-465E-97CD-524ECB77F3A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2701" uniqueCount="395">
   <si>
     <t>Homme</t>
   </si>
@@ -995,9 +987,6 @@
     <t>12b0fbc1-e6b1-11ea-be9b-2b562de1e2c7</t>
   </si>
   <si>
-    <t>1DM23</t>
-  </si>
-  <si>
     <t>1ZN04</t>
   </si>
   <si>
@@ -1194,15 +1183,49 @@
   </si>
   <si>
     <t>plus fort le matin, suite au réveil</t>
+  </si>
+  <si>
+    <t>1DM32</t>
+  </si>
+  <si>
+    <t>1HB20</t>
+  </si>
+  <si>
+    <t>1SL21</t>
+  </si>
+  <si>
+    <t>1UC22</t>
+  </si>
+  <si>
+    <t>2GA06</t>
+  </si>
+  <si>
+    <t>2SJ03</t>
+  </si>
+  <si>
+    <t>2LS05</t>
+  </si>
+  <si>
+    <t>2CT04</t>
+  </si>
+  <si>
+    <t>2TL07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1213,6 +1236,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1259,7 +1288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1277,6 +1306,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1593,18 +1624,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E847EA8-6EE2-42D7-BAB1-4873AF742906}">
   <dimension ref="A1:FX76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BK1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="EA1" activePane="topRight" state="frozen"/>
       <selection activeCell="A24" sqref="A24"/>
-      <selection pane="topRight" activeCell="BK18" sqref="BK18"/>
+      <selection pane="topRight" activeCell="EI33" sqref="EI33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="59" max="59" width="10.90625" style="5"/>
+    <col min="59" max="59" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:180" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:180" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>300</v>
       </c>
@@ -2146,7 +2177,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:180" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:180" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>302</v>
       </c>
@@ -2505,7 +2536,7 @@
         <v>44033.817847222221</v>
       </c>
     </row>
-    <row r="3" spans="1:180" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:180" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>314</v>
       </c>
@@ -2846,7 +2877,7 @@
         <v>43846.486921296295</v>
       </c>
     </row>
-    <row r="4" spans="1:180" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:180" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>305</v>
       </c>
@@ -3196,7 +3227,7 @@
         <v>44029.723680555559</v>
       </c>
     </row>
-    <row r="5" spans="1:180" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:180" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>307</v>
       </c>
@@ -3543,7 +3574,7 @@
         <v>43970.600405092591</v>
       </c>
     </row>
-    <row r="6" spans="1:180" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:180" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>306</v>
       </c>
@@ -3884,7 +3915,7 @@
         <v>43887.003888888888</v>
       </c>
     </row>
-    <row r="7" spans="1:180" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:180" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>304</v>
       </c>
@@ -4255,7 +4286,7 @@
         <v>44029.823275462964</v>
       </c>
     </row>
-    <row r="8" spans="1:180" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:180" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>303</v>
       </c>
@@ -4617,9 +4648,9 @@
         <v>44036.38894675926</v>
       </c>
     </row>
-    <row r="9" spans="1:180" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:180" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>320</v>
+        <v>386</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -4937,7 +4968,7 @@
         <v>44068.474166666667</v>
       </c>
     </row>
-    <row r="10" spans="1:180" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:180" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>311</v>
       </c>
@@ -5272,7 +5303,7 @@
         <v>43729.039687500001</v>
       </c>
     </row>
-    <row r="11" spans="1:180" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:180" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>308</v>
       </c>
@@ -5604,7 +5635,7 @@
         <v>43718.933912037035</v>
       </c>
     </row>
-    <row r="12" spans="1:180" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:180" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>309</v>
       </c>
@@ -5930,7 +5961,7 @@
         <v>43720.592141203706</v>
       </c>
     </row>
-    <row r="13" spans="1:180" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:180" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>301</v>
       </c>
@@ -6250,7 +6281,7 @@
         <v>44053.677824074075</v>
       </c>
     </row>
-    <row r="14" spans="1:180" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:180" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>312</v>
       </c>
@@ -6585,7 +6616,7 @@
         <v>43756.492511574077</v>
       </c>
     </row>
-    <row r="15" spans="1:180" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:180" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>313</v>
       </c>
@@ -6917,7 +6948,7 @@
         <v>43765.896203703705</v>
       </c>
     </row>
-    <row r="16" spans="1:180" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:180" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>310</v>
       </c>
@@ -7240,9 +7271,9 @@
         <v>43723.830752314818</v>
       </c>
     </row>
-    <row r="17" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>0</v>
@@ -7254,7 +7285,7 @@
         <v>24</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>2</v>
@@ -7293,7 +7324,7 @@
         <v>1</v>
       </c>
       <c r="AI17" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AJ17" s="5" t="s">
         <v>28</v>
@@ -7305,7 +7336,7 @@
         <v>2</v>
       </c>
       <c r="AM17" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AN17" s="5" t="s">
         <v>2</v>
@@ -7335,7 +7366,7 @@
         <v>103</v>
       </c>
       <c r="BG17" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BH17" s="5" t="s">
         <v>42</v>
@@ -7344,7 +7375,7 @@
         <v>1</v>
       </c>
       <c r="BM17" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="BN17" s="5" t="s">
         <v>12</v>
@@ -7434,7 +7465,7 @@
         <v>3</v>
       </c>
       <c r="DS17" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="DT17" s="5" t="s">
         <v>2</v>
@@ -7560,7 +7591,7 @@
         <v>44</v>
       </c>
       <c r="FV17" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="FW17" s="6">
         <v>43717</v>
@@ -7569,9 +7600,9 @@
         <v>43717.625</v>
       </c>
     </row>
-    <row r="18" spans="1:180" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:180" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>37</v>
@@ -7583,7 +7614,7 @@
         <v>48</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>2</v>
@@ -7628,11 +7659,11 @@
         <v>1</v>
       </c>
       <c r="AI18" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="AJ18" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="AJ18" s="8" t="s">
-        <v>331</v>
-      </c>
       <c r="AK18" s="8" t="s">
         <v>3</v>
       </c>
@@ -7640,7 +7671,7 @@
         <v>2</v>
       </c>
       <c r="AM18" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AN18" s="8" t="s">
         <v>41</v>
@@ -7763,7 +7794,7 @@
         <v>24</v>
       </c>
       <c r="DS18" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="DT18" s="8" t="s">
         <v>2</v>
@@ -7889,7 +7920,7 @@
         <v>69</v>
       </c>
       <c r="FV18" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="FW18" s="9">
         <v>43717</v>
@@ -7898,9 +7929,9 @@
         <v>43717.869444444441</v>
       </c>
     </row>
-    <row r="19" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>37</v>
@@ -7912,7 +7943,7 @@
         <v>57</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>2</v>
@@ -7960,7 +7991,7 @@
         <v>3</v>
       </c>
       <c r="AM19" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AN19" s="5" t="s">
         <v>2</v>
@@ -8065,7 +8096,7 @@
         <v>1</v>
       </c>
       <c r="CQ19" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="CR19" s="5" t="s">
         <v>3</v>
@@ -8095,7 +8126,7 @@
         <v>3</v>
       </c>
       <c r="DS19" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="DT19" s="5" t="s">
         <v>2</v>
@@ -8116,7 +8147,7 @@
         <v>3</v>
       </c>
       <c r="EJ19" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="EK19" s="5" t="s">
         <v>21</v>
@@ -8230,7 +8261,7 @@
         <v>51</v>
       </c>
       <c r="FV19" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="FW19" s="6">
         <v>43717</v>
@@ -8239,9 +8270,9 @@
         <v>43717.697222222225</v>
       </c>
     </row>
-    <row r="20" spans="1:180" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:180" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>0</v>
@@ -8253,7 +8284,7 @@
         <v>48</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>3</v>
@@ -8298,7 +8329,7 @@
         <v>3</v>
       </c>
       <c r="AM20" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AN20" s="11" t="s">
         <v>3</v>
@@ -8328,7 +8359,7 @@
         <v>103</v>
       </c>
       <c r="BG20" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="BN20" s="11" t="s">
         <v>31</v>
@@ -8416,7 +8447,7 @@
         <v>24</v>
       </c>
       <c r="DS20" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="DT20" s="11" t="s">
         <v>2</v>
@@ -8521,7 +8552,7 @@
         <v>56</v>
       </c>
       <c r="FV20" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="FW20" s="12">
         <v>43717</v>
@@ -8530,9 +8561,9 @@
         <v>43717.730555555558</v>
       </c>
     </row>
-    <row r="21" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>37</v>
@@ -8544,7 +8575,7 @@
         <v>56</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>2</v>
@@ -8592,7 +8623,7 @@
         <v>2</v>
       </c>
       <c r="AM21" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AN21" s="5" t="s">
         <v>2</v>
@@ -8712,7 +8743,7 @@
         <v>24</v>
       </c>
       <c r="DS21" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="DT21" s="5" t="s">
         <v>2</v>
@@ -8838,7 +8869,7 @@
         <v>172</v>
       </c>
       <c r="FV21" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="FW21" s="6">
         <v>43719</v>
@@ -8847,9 +8878,9 @@
         <v>43719.534722222219</v>
       </c>
     </row>
-    <row r="22" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>0</v>
@@ -8861,7 +8892,7 @@
         <v>57</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>2</v>
@@ -8909,7 +8940,7 @@
         <v>3</v>
       </c>
       <c r="AM22" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AN22" s="5" t="s">
         <v>3</v>
@@ -8939,7 +8970,7 @@
         <v>103</v>
       </c>
       <c r="BG22" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="BH22" s="5" t="s">
         <v>30</v>
@@ -9017,7 +9048,7 @@
         <v>1</v>
       </c>
       <c r="CQ22" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="CR22" s="5" t="s">
         <v>2</v>
@@ -9035,7 +9066,7 @@
         <v>2</v>
       </c>
       <c r="DS22" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="DT22" s="5" t="s">
         <v>2</v>
@@ -9056,7 +9087,7 @@
         <v>3</v>
       </c>
       <c r="EJ22" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="EK22" s="5" t="s">
         <v>50</v>
@@ -9170,7 +9201,7 @@
         <v>177</v>
       </c>
       <c r="FV22" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="FW22" s="6">
         <v>43719</v>
@@ -9179,9 +9210,9 @@
         <v>43719.566666666666</v>
       </c>
     </row>
-    <row r="23" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>37</v>
@@ -9193,7 +9224,7 @@
         <v>61</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>2</v>
@@ -9235,7 +9266,7 @@
         <v>1</v>
       </c>
       <c r="AI23" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AJ23" s="5" t="s">
         <v>65</v>
@@ -9247,7 +9278,7 @@
         <v>2</v>
       </c>
       <c r="AM23" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AN23" s="5" t="s">
         <v>2</v>
@@ -9277,7 +9308,7 @@
         <v>103</v>
       </c>
       <c r="BG23" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="BH23" s="5" t="s">
         <v>42</v>
@@ -9289,7 +9320,7 @@
         <v>1</v>
       </c>
       <c r="BM23" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BN23" s="5" t="s">
         <v>31</v>
@@ -9358,7 +9389,7 @@
         <v>1</v>
       </c>
       <c r="CQ23" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="CR23" s="5" t="s">
         <v>2</v>
@@ -9376,7 +9407,7 @@
         <v>2</v>
       </c>
       <c r="DS23" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="DT23" s="5" t="s">
         <v>2</v>
@@ -9502,7 +9533,7 @@
         <v>384</v>
       </c>
       <c r="FV23" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="FW23" s="6">
         <v>43738</v>
@@ -9511,9 +9542,9 @@
         <v>43738.599305555559</v>
       </c>
     </row>
-    <row r="24" spans="1:180" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:180" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>0</v>
@@ -9525,7 +9556,7 @@
         <v>22</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>2</v>
@@ -9573,7 +9604,7 @@
         <v>2</v>
       </c>
       <c r="AM24" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AN24" s="11" t="s">
         <v>2</v>
@@ -9688,7 +9719,7 @@
         <v>3</v>
       </c>
       <c r="DS24" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="DT24" s="11" t="s">
         <v>2</v>
@@ -9793,7 +9824,7 @@
         <v>396</v>
       </c>
       <c r="FV24" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FW24" s="12">
         <v>43744</v>
@@ -9802,9 +9833,9 @@
         <v>43745.912499999999</v>
       </c>
     </row>
-    <row r="25" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>0</v>
@@ -9816,7 +9847,7 @@
         <v>51</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>2</v>
@@ -9867,7 +9898,7 @@
         <v>3</v>
       </c>
       <c r="AM25" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AN25" s="5" t="s">
         <v>2</v>
@@ -9897,7 +9928,7 @@
         <v>103</v>
       </c>
       <c r="BG25" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BH25" s="5" t="s">
         <v>42</v>
@@ -9981,14 +10012,14 @@
         <v>13</v>
       </c>
       <c r="CQ25" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="CR25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS25" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="CR25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="CS25" s="5" t="s">
-        <v>375</v>
-      </c>
       <c r="CY25" s="5">
         <v>1</v>
       </c>
@@ -10023,7 +10054,7 @@
         <v>2</v>
       </c>
       <c r="DS25" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="DT25" s="5" t="s">
         <v>3</v>
@@ -10149,7 +10180,7 @@
         <v>421</v>
       </c>
       <c r="FV25" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="FW25" s="6">
         <v>43753</v>
@@ -10158,9 +10189,9 @@
         <v>43753.380555555559</v>
       </c>
     </row>
-    <row r="26" spans="1:180" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:180" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>37</v>
@@ -10172,7 +10203,7 @@
         <v>20</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F26" s="14" t="s">
         <v>2</v>
@@ -10220,7 +10251,7 @@
         <v>2</v>
       </c>
       <c r="AM26" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AN26" s="14" t="s">
         <v>2</v>
@@ -10280,7 +10311,7 @@
         <v>24</v>
       </c>
       <c r="DS26" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="DT26" s="14" t="s">
         <v>2</v>
@@ -10298,7 +10329,7 @@
         <v>6</v>
       </c>
       <c r="ES26" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="ET26" s="14" t="s">
         <v>24</v>
@@ -10385,7 +10416,7 @@
         <v>435</v>
       </c>
       <c r="FV26" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="FW26" s="15">
         <v>43758</v>
@@ -10394,9 +10425,9 @@
         <v>43758.751388888886</v>
       </c>
     </row>
-    <row r="27" spans="1:180" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:180" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>0</v>
@@ -10408,7 +10439,7 @@
         <v>58</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>2</v>
@@ -10456,7 +10487,7 @@
         <v>1</v>
       </c>
       <c r="AI27" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AJ27" s="11" t="s">
         <v>6</v>
@@ -10468,7 +10499,7 @@
         <v>2</v>
       </c>
       <c r="AM27" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AN27" s="11" t="s">
         <v>17</v>
@@ -10501,7 +10532,7 @@
         <v>103</v>
       </c>
       <c r="BG27" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="BN27" s="11" t="s">
         <v>83</v>
@@ -10588,7 +10619,7 @@
         <v>2</v>
       </c>
       <c r="DS27" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="DT27" s="11" t="s">
         <v>2</v>
@@ -10693,7 +10724,7 @@
         <v>453</v>
       </c>
       <c r="FV27" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="FW27" s="12">
         <v>43763</v>
@@ -10702,9 +10733,9 @@
         <v>43763.501388888886</v>
       </c>
     </row>
-    <row r="28" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>0</v>
@@ -10716,7 +10747,7 @@
         <v>65</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>2</v>
@@ -10758,7 +10789,7 @@
         <v>1</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AJ28" s="5" t="s">
         <v>65</v>
@@ -10770,7 +10801,7 @@
         <v>2</v>
       </c>
       <c r="AM28" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AN28" s="5" t="s">
         <v>3</v>
@@ -10881,14 +10912,14 @@
         <v>14</v>
       </c>
       <c r="CQ28" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="CR28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS28" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="CR28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="CS28" s="5" t="s">
-        <v>378</v>
-      </c>
       <c r="CY28" s="5">
         <v>1</v>
       </c>
@@ -10902,7 +10933,7 @@
         <v>2</v>
       </c>
       <c r="DS28" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="DT28" s="5" t="s">
         <v>3</v>
@@ -11037,7 +11068,7 @@
         <v>703</v>
       </c>
       <c r="FV28" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="FW28" s="6">
         <v>43769</v>
@@ -11046,9 +11077,9 @@
         <v>43769.868750000001</v>
       </c>
     </row>
-    <row r="29" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>0</v>
@@ -11060,7 +11091,7 @@
         <v>54</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>2</v>
@@ -11102,7 +11133,7 @@
         <v>1</v>
       </c>
       <c r="AI29" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AJ29" s="5" t="s">
         <v>28</v>
@@ -11114,7 +11145,7 @@
         <v>2</v>
       </c>
       <c r="AM29" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AN29" s="5" t="s">
         <v>3</v>
@@ -11216,7 +11247,7 @@
         <v>1</v>
       </c>
       <c r="CQ29" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CR29" s="5" t="s">
         <v>2</v>
@@ -11234,7 +11265,7 @@
         <v>2</v>
       </c>
       <c r="DS29" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="DT29" s="5" t="s">
         <v>2</v>
@@ -11360,7 +11391,7 @@
         <v>704</v>
       </c>
       <c r="FV29" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="FW29" s="6">
         <v>43770</v>
@@ -11369,53 +11400,173 @@
         <v>43770.369444444441</v>
       </c>
     </row>
-    <row r="30" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="17:180" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="17:180" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="17:180" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:180" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="18">
+        <v>34</v>
+      </c>
+      <c r="D30" s="18">
+        <v>60</v>
+      </c>
+      <c r="BN30" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="BX30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="BZ30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="CD30" t="s">
+        <v>13</v>
+      </c>
+      <c r="CI30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="EI30" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:180" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="18">
+        <v>36</v>
+      </c>
+      <c r="D31" s="18">
+        <v>50</v>
+      </c>
+      <c r="BN31" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="BX31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="BZ31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="CD31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="CI31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="EI31" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:180" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="18">
+        <v>48</v>
+      </c>
+      <c r="D32" s="18">
+        <v>58</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="BX32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="BZ32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>32</v>
+      </c>
+      <c r="CI32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="EI32" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:180" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="34" spans="1:180" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="35" spans="1:180" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>392</v>
+      </c>
       <c r="Q35" s="6"/>
       <c r="FW35" s="6"/>
       <c r="FX35" s="7"/>
     </row>
-    <row r="36" spans="17:180" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="17:180" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:180" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="37" spans="1:180" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>394</v>
+      </c>
       <c r="EH37" s="6"/>
       <c r="EI37" s="7"/>
     </row>
-    <row r="38" spans="17:180" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="17:180" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="EH39" s="6"/>
       <c r="EI39" s="7"/>
     </row>
-    <row r="40" spans="17:180" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="EH40" s="6"/>
       <c r="EI40" s="7"/>
     </row>
-    <row r="41" spans="17:180" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="17:180" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="EH42" s="6"/>
       <c r="EI42" s="7"/>
     </row>
-    <row r="43" spans="17:180" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="17:180" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="EH44" s="6"/>
       <c r="EI44" s="7"/>
     </row>
-    <row r="45" spans="17:180" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="17:180" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="47" spans="17:180" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="EH47" s="6"/>
       <c r="EI47" s="7"/>
     </row>
-    <row r="48" spans="17:180" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="EH48" s="6"/>
       <c r="EI48" s="7"/>
     </row>
-    <row r="49" spans="69:78" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="69:78" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="51" spans="69:78" x14ac:dyDescent="0.35">
+    <row r="49" spans="69:78" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="69:78" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="69:78" x14ac:dyDescent="0.2">
       <c r="BQ51" s="5"/>
       <c r="BR51" s="5"/>
       <c r="BS51" s="5"/>
@@ -11427,7 +11578,7 @@
       <c r="BY51" s="5"/>
       <c r="BZ51" s="5"/>
     </row>
-    <row r="52" spans="69:78" x14ac:dyDescent="0.35">
+    <row r="52" spans="69:78" x14ac:dyDescent="0.2">
       <c r="BQ52" s="5"/>
       <c r="BR52" s="5"/>
       <c r="BS52" s="5"/>
@@ -11439,7 +11590,7 @@
       <c r="BY52" s="5"/>
       <c r="BZ52" s="5"/>
     </row>
-    <row r="53" spans="69:78" x14ac:dyDescent="0.35">
+    <row r="53" spans="69:78" x14ac:dyDescent="0.2">
       <c r="BQ53" s="5"/>
       <c r="BR53" s="5"/>
       <c r="BS53" s="5"/>
@@ -11451,7 +11602,7 @@
       <c r="BY53" s="5"/>
       <c r="BZ53" s="5"/>
     </row>
-    <row r="54" spans="69:78" x14ac:dyDescent="0.35">
+    <row r="54" spans="69:78" x14ac:dyDescent="0.2">
       <c r="BQ54" s="5"/>
       <c r="BR54" s="5"/>
       <c r="BS54" s="5"/>
@@ -11463,23 +11614,23 @@
       <c r="BY54" s="5"/>
       <c r="BZ54" s="5"/>
     </row>
-    <row r="72" spans="86:87" x14ac:dyDescent="0.35">
+    <row r="72" spans="86:87" x14ac:dyDescent="0.2">
       <c r="CH72" s="1"/>
       <c r="CI72" s="2"/>
     </row>
-    <row r="73" spans="86:87" x14ac:dyDescent="0.35">
+    <row r="73" spans="86:87" x14ac:dyDescent="0.2">
       <c r="CH73" s="1"/>
       <c r="CI73" s="2"/>
     </row>
-    <row r="74" spans="86:87" x14ac:dyDescent="0.35">
+    <row r="74" spans="86:87" x14ac:dyDescent="0.2">
       <c r="CH74" s="1"/>
       <c r="CI74" s="2"/>
     </row>
-    <row r="75" spans="86:87" x14ac:dyDescent="0.35">
+    <row r="75" spans="86:87" x14ac:dyDescent="0.2">
       <c r="CH75" s="1"/>
       <c r="CI75" s="2"/>
     </row>
-    <row r="76" spans="86:87" x14ac:dyDescent="0.35">
+    <row r="76" spans="86:87" x14ac:dyDescent="0.2">
       <c r="CH76" s="1"/>
       <c r="CI76" s="2"/>
     </row>
@@ -11487,7 +11638,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:GB17">
     <sortCondition ref="A2"/>
   </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/notebooks/data/etiology.xlsx
+++ b/notebooks/data/etiology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louis/git/Tinnitus-n-Sleep/notebooks/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zeta\Documents\acou_sommeil_HD_ENS\Tinnitus-n-Sleep\notebooks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3851529E-841B-BD4D-AA13-F0D1CBA601AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985E213A-1AA6-4BF7-B8DE-B35EB7F72BD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52800" yWindow="460" windowWidth="19200" windowHeight="21140" xr2:uid="{F5BF53D5-4C89-465E-97CD-524ECB77F3A5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F5BF53D5-4C89-465E-97CD-524ECB77F3A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2701" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2707" uniqueCount="395">
   <si>
     <t>Homme</t>
   </si>
@@ -1216,7 +1216,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1624,18 +1624,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E847EA8-6EE2-42D7-BAB1-4873AF742906}">
   <dimension ref="A1:FX76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="EA1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CC1" activePane="topRight" state="frozen"/>
       <selection activeCell="A24" sqref="A24"/>
-      <selection pane="topRight" activeCell="EI33" sqref="EI33"/>
+      <selection pane="topRight" activeCell="CN30" sqref="CN30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="59" max="59" width="10.83203125" style="5"/>
+    <col min="59" max="59" width="10.81640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:180">
       <c r="A1" t="s">
         <v>300</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:180">
       <c r="A2" s="3" t="s">
         <v>302</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>44033.817847222221</v>
       </c>
     </row>
-    <row r="3" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:180">
       <c r="A3" s="3" t="s">
         <v>314</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>43846.486921296295</v>
       </c>
     </row>
-    <row r="4" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:180">
       <c r="A4" s="3" t="s">
         <v>305</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>44029.723680555559</v>
       </c>
     </row>
-    <row r="5" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:180">
       <c r="A5" s="3" t="s">
         <v>307</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>43970.600405092591</v>
       </c>
     </row>
-    <row r="6" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:180">
       <c r="A6" s="3" t="s">
         <v>306</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>43887.003888888888</v>
       </c>
     </row>
-    <row r="7" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:180">
       <c r="A7" s="3" t="s">
         <v>304</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>44029.823275462964</v>
       </c>
     </row>
-    <row r="8" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:180">
       <c r="A8" s="3" t="s">
         <v>303</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>44036.38894675926</v>
       </c>
     </row>
-    <row r="9" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:180">
       <c r="A9" s="3" t="s">
         <v>386</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>44068.474166666667</v>
       </c>
     </row>
-    <row r="10" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:180">
       <c r="A10" s="4" t="s">
         <v>311</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>43729.039687500001</v>
       </c>
     </row>
-    <row r="11" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:180">
       <c r="A11" s="4" t="s">
         <v>308</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>43718.933912037035</v>
       </c>
     </row>
-    <row r="12" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:180">
       <c r="A12" s="4" t="s">
         <v>309</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>43720.592141203706</v>
       </c>
     </row>
-    <row r="13" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:180">
       <c r="A13" s="4" t="s">
         <v>301</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>44053.677824074075</v>
       </c>
     </row>
-    <row r="14" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:180">
       <c r="A14" s="4" t="s">
         <v>312</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>43756.492511574077</v>
       </c>
     </row>
-    <row r="15" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:180">
       <c r="A15" s="4" t="s">
         <v>313</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>43765.896203703705</v>
       </c>
     </row>
-    <row r="16" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:180">
       <c r="A16" s="4" t="s">
         <v>310</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>43723.830752314818</v>
       </c>
     </row>
-    <row r="17" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:180" s="5" customFormat="1">
       <c r="A17" s="5" t="s">
         <v>320</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>43717.625</v>
       </c>
     </row>
-    <row r="18" spans="1:180" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:180" s="8" customFormat="1">
       <c r="A18" s="8" t="s">
         <v>327</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>43717.869444444441</v>
       </c>
     </row>
-    <row r="19" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:180" s="5" customFormat="1">
       <c r="A19" s="5" t="s">
         <v>332</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>43717.697222222225</v>
       </c>
     </row>
-    <row r="20" spans="1:180" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:180" s="11" customFormat="1">
       <c r="A20" s="11" t="s">
         <v>335</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>43717.730555555558</v>
       </c>
     </row>
-    <row r="21" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:180" s="5" customFormat="1">
       <c r="A21" s="5" t="s">
         <v>338</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>43719.534722222219</v>
       </c>
     </row>
-    <row r="22" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:180" s="5" customFormat="1">
       <c r="A22" s="5" t="s">
         <v>342</v>
       </c>
@@ -9210,7 +9210,7 @@
         <v>43719.566666666666</v>
       </c>
     </row>
-    <row r="23" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:180" s="5" customFormat="1">
       <c r="A23" s="5" t="s">
         <v>346</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>43738.599305555559</v>
       </c>
     </row>
-    <row r="24" spans="1:180" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:180" s="11" customFormat="1">
       <c r="A24" s="11" t="s">
         <v>351</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>43745.912499999999</v>
       </c>
     </row>
-    <row r="25" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:180" s="5" customFormat="1">
       <c r="A25" s="5" t="s">
         <v>354</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>43753.380555555559</v>
       </c>
     </row>
-    <row r="26" spans="1:180" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:180" s="14" customFormat="1">
       <c r="A26" s="14" t="s">
         <v>357</v>
       </c>
@@ -10425,7 +10425,7 @@
         <v>43758.751388888886</v>
       </c>
     </row>
-    <row r="27" spans="1:180" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:180" s="11" customFormat="1">
       <c r="A27" s="11" t="s">
         <v>361</v>
       </c>
@@ -10733,7 +10733,7 @@
         <v>43763.501388888886</v>
       </c>
     </row>
-    <row r="28" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:180" s="5" customFormat="1">
       <c r="A28" s="5" t="s">
         <v>365</v>
       </c>
@@ -11077,7 +11077,7 @@
         <v>43769.868750000001</v>
       </c>
     </row>
-    <row r="29" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:180" s="5" customFormat="1">
       <c r="A29" s="5" t="s">
         <v>369</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>43770.369444444441</v>
       </c>
     </row>
-    <row r="30" spans="1:180" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:180" s="5" customFormat="1" ht="15.5">
       <c r="A30" s="17" t="s">
         <v>387</v>
       </c>
@@ -11425,9 +11425,15 @@
       <c r="BZ30" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="CB30" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="CD30" t="s">
         <v>13</v>
       </c>
+      <c r="CF30" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="CI30" s="5" t="s">
         <v>13</v>
       </c>
@@ -11435,7 +11441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:180" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:180" s="5" customFormat="1" ht="15.5">
       <c r="A31" s="17" t="s">
         <v>388</v>
       </c>
@@ -11448,6 +11454,9 @@
       <c r="D31" s="18">
         <v>50</v>
       </c>
+      <c r="AF31" s="5">
+        <v>1</v>
+      </c>
       <c r="BN31" t="s">
         <v>31</v>
       </c>
@@ -11460,17 +11469,26 @@
       <c r="BZ31" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="CB31" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="CD31" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="CF31" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="CI31" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="DF31" s="5">
+        <v>1</v>
+      </c>
       <c r="EI31" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:180" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:180" s="5" customFormat="1" ht="15.5">
       <c r="A32" s="17" t="s">
         <v>389</v>
       </c>
@@ -11483,6 +11501,9 @@
       <c r="D32" s="18">
         <v>58</v>
       </c>
+      <c r="R32" s="5">
+        <v>1</v>
+      </c>
       <c r="BN32" t="s">
         <v>31</v>
       </c>
@@ -11495,27 +11516,66 @@
       <c r="BZ32" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="CB32" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="CD32" t="s">
         <v>32</v>
       </c>
+      <c r="CF32" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="CI32" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="CJ32" s="5">
+        <v>1</v>
+      </c>
+      <c r="CK32" s="5">
+        <v>1</v>
+      </c>
+      <c r="DF32" s="5">
+        <v>1</v>
+      </c>
+      <c r="DG32" s="5">
+        <v>1</v>
+      </c>
+      <c r="DH32" s="5">
+        <v>1</v>
+      </c>
+      <c r="DI32" s="5">
+        <v>1</v>
+      </c>
+      <c r="DJ32" s="5">
+        <v>1</v>
+      </c>
+      <c r="DK32" s="5">
+        <v>1</v>
+      </c>
+      <c r="DL32" s="5">
+        <v>1</v>
+      </c>
+      <c r="DN32" s="5">
+        <v>1</v>
+      </c>
+      <c r="DP32" s="5">
+        <v>1</v>
+      </c>
       <c r="EI32" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:180" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:180" s="5" customFormat="1">
       <c r="A33" s="17" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="34" spans="1:180" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:180" s="5" customFormat="1">
       <c r="A34" s="17" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="35" spans="1:180" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:180" s="5" customFormat="1">
       <c r="A35" s="17" t="s">
         <v>392</v>
       </c>
@@ -11523,50 +11583,50 @@
       <c r="FW35" s="6"/>
       <c r="FX35" s="7"/>
     </row>
-    <row r="36" spans="1:180" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:180" s="5" customFormat="1">
       <c r="A36" s="17" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="37" spans="1:180" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:180" s="5" customFormat="1">
       <c r="A37" s="17" t="s">
         <v>394</v>
       </c>
       <c r="EH37" s="6"/>
       <c r="EI37" s="7"/>
     </row>
-    <row r="38" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:180" s="5" customFormat="1"/>
+    <row r="39" spans="1:180" s="5" customFormat="1">
       <c r="EH39" s="6"/>
       <c r="EI39" s="7"/>
     </row>
-    <row r="40" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:180" s="5" customFormat="1">
       <c r="EH40" s="6"/>
       <c r="EI40" s="7"/>
     </row>
-    <row r="41" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:180" s="5" customFormat="1"/>
+    <row r="42" spans="1:180" s="5" customFormat="1">
       <c r="EH42" s="6"/>
       <c r="EI42" s="7"/>
     </row>
-    <row r="43" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:180" s="5" customFormat="1"/>
+    <row r="44" spans="1:180" s="5" customFormat="1">
       <c r="EH44" s="6"/>
       <c r="EI44" s="7"/>
     </row>
-    <row r="45" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:180" s="5" customFormat="1"/>
+    <row r="46" spans="1:180" s="5" customFormat="1"/>
+    <row r="47" spans="1:180" s="5" customFormat="1">
       <c r="EH47" s="6"/>
       <c r="EI47" s="7"/>
     </row>
-    <row r="48" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:180" s="5" customFormat="1">
       <c r="EH48" s="6"/>
       <c r="EI48" s="7"/>
     </row>
-    <row r="49" spans="69:78" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="69:78" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="69:78" x14ac:dyDescent="0.2">
+    <row r="49" spans="69:78" s="5" customFormat="1"/>
+    <row r="50" spans="69:78" s="5" customFormat="1"/>
+    <row r="51" spans="69:78">
       <c r="BQ51" s="5"/>
       <c r="BR51" s="5"/>
       <c r="BS51" s="5"/>
@@ -11578,7 +11638,7 @@
       <c r="BY51" s="5"/>
       <c r="BZ51" s="5"/>
     </row>
-    <row r="52" spans="69:78" x14ac:dyDescent="0.2">
+    <row r="52" spans="69:78">
       <c r="BQ52" s="5"/>
       <c r="BR52" s="5"/>
       <c r="BS52" s="5"/>
@@ -11590,7 +11650,7 @@
       <c r="BY52" s="5"/>
       <c r="BZ52" s="5"/>
     </row>
-    <row r="53" spans="69:78" x14ac:dyDescent="0.2">
+    <row r="53" spans="69:78">
       <c r="BQ53" s="5"/>
       <c r="BR53" s="5"/>
       <c r="BS53" s="5"/>
@@ -11602,7 +11662,7 @@
       <c r="BY53" s="5"/>
       <c r="BZ53" s="5"/>
     </row>
-    <row r="54" spans="69:78" x14ac:dyDescent="0.2">
+    <row r="54" spans="69:78">
       <c r="BQ54" s="5"/>
       <c r="BR54" s="5"/>
       <c r="BS54" s="5"/>
@@ -11614,23 +11674,23 @@
       <c r="BY54" s="5"/>
       <c r="BZ54" s="5"/>
     </row>
-    <row r="72" spans="86:87" x14ac:dyDescent="0.2">
+    <row r="72" spans="86:87">
       <c r="CH72" s="1"/>
       <c r="CI72" s="2"/>
     </row>
-    <row r="73" spans="86:87" x14ac:dyDescent="0.2">
+    <row r="73" spans="86:87">
       <c r="CH73" s="1"/>
       <c r="CI73" s="2"/>
     </row>
-    <row r="74" spans="86:87" x14ac:dyDescent="0.2">
+    <row r="74" spans="86:87">
       <c r="CH74" s="1"/>
       <c r="CI74" s="2"/>
     </row>
-    <row r="75" spans="86:87" x14ac:dyDescent="0.2">
+    <row r="75" spans="86:87">
       <c r="CH75" s="1"/>
       <c r="CI75" s="2"/>
     </row>
-    <row r="76" spans="86:87" x14ac:dyDescent="0.2">
+    <row r="76" spans="86:87">
       <c r="CH76" s="1"/>
       <c r="CI76" s="2"/>
     </row>
@@ -11640,5 +11700,6 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>